--- a/data/trans_dic/CONS_ANS-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_ANS-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -568,62 +569,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>16/24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,98%</t>
         </is>
       </c>
     </row>
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,46; 3,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 2,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,87; 5,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>1,29; 6,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,85; 4,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 8,01</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,22</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,19</t>
+          <t>1,39; 10,4</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,97; 3,26</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,59</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,65; 3,18</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>2,06; 7,04</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>25/34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>3,47%</t>
         </is>
       </c>
     </row>
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,88; 3,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 4,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,84; 4,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,24</t>
+          <t>1,58; 6,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,61; 3,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,81; 5,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,94; 6,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,76</t>
+          <t>1,57; 5,84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,0; 2,84</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,73; 3,58</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,76; 4,76</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,54</t>
+          <t>1,99; 5,66</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>35/44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>6,16%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,85%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>5,57%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>0,55; 2,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>1,73; 6,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,89; 4,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,91; 4,81</t>
+          <t>3,71; 11,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>2,56; 6,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,83</t>
+          <t>3,21; 7,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,48; 9,57</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,43</t>
+          <t>2,67; 8,85</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>1,86; 3,85</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,54</t>
+          <t>2,83; 5,78</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,29; 6,18</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,79; 2,92</t>
+          <t>3,68; 8,29</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>45/54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,61%</t>
+          <t>7,9%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>12,58%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>5,48%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>9,77%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1145,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,95; 4,1</t>
+          <t>3,91; 7,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,47; 7,06</t>
+          <t>1,65; 9,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,11</t>
+          <t>2,75; 6,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,68; 3,25</t>
+          <t>4,28; 11,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,91</t>
+          <t>4,64; 8,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,61; 11,06</t>
+          <t>5,6; 12,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,97</t>
+          <t>4,47; 9,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,99; 3,86</t>
+          <t>8,05; 19,52</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,63; 2,67</t>
+          <t>4,65; 7,19</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,08; 6,98</t>
+          <t>3,01; 8,78</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,89</t>
+          <t>4,11; 7,48</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,1; 3,01</t>
+          <t>6,91; 13,21</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>55/64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>9,25%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>7,09%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>13,03%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>11,31%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>19,35%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>3,47%</t>
+          <t>9,61%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>9,27%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>14,72%</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,94; 4,26</t>
+          <t>3,82; 7,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,65; 6,9</t>
+          <t>3,99; 8,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,27</t>
+          <t>4,8; 10,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,79; 3,06</t>
+          <t>5,79; 14,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,97; 5,98</t>
+          <t>5,35; 9,16</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,67; 6,22</t>
+          <t>10,03; 16,14</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,99; 3,92</t>
+          <t>8,44; 14,61</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,72; 3,11</t>
+          <t>14,08; 26,95</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,76; 4,42</t>
+          <t>5,24; 8,02</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,08; 5,59</t>
+          <t>7,95; 11,82</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,0; 3,15</t>
+          <t>7,25; 11,57</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,9; 2,56</t>
+          <t>11,24; 19,26</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>65/74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>9,88%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>6,82%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>12,26%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>15,93%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>9,38%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>13,27%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,16; 4,55</t>
+          <t>2,99; 6,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,71; 10,39</t>
+          <t>3,01; 7,91</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,05; 5,38</t>
+          <t>4,77; 9,07</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,16; 3,6</t>
+          <t>5,14; 21,42</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,61; 9,66</t>
+          <t>6,49; 10,98</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,74; 8,68</t>
+          <t>2,11; 13,08</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,71; 6,81</t>
+          <t>9,42; 15,56</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,01; 6,17</t>
+          <t>10,87; 24,98</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,41; 6,33</t>
+          <t>5,12; 7,97</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>3,84; 8,27</t>
+          <t>2,63; 9,65</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>3,15; 5,47</t>
+          <t>7,71; 11,52</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,32; 4,32</t>
+          <t>9,68; 18,56</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>75 y más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>9,74%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>10,48%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>8,38%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>12,19%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>16,03%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>12,58%</t>
+          <t>18,46%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>8,82%</t>
+          <t>14,78%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>27,14%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>13,4%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>9,77%</t>
+          <t>15,32%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>7,63%</t>
+          <t>12,17%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>21,47%</t>
         </is>
       </c>
     </row>
@@ -1564,69 +1565,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,8; 6,39</t>
+          <t>6,86; 12,82</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,28; 11,63</t>
+          <t>6,77; 14,57</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,26; 8,52</t>
+          <t>6,12; 11,27</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,61; 6,74</t>
+          <t>7,4; 18,88</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,02; 8,78</t>
+          <t>13,55; 19,17</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,43; 19,14</t>
+          <t>14,78; 22,88</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,85; 12,03</t>
+          <t>11,73; 18,18</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,9; 8,27</t>
+          <t>21,44; 34,55</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,95; 6,95</t>
+          <t>11,47; 15,51</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>7,14; 13,84</t>
+          <t>12,63; 18,27</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>6,14; 9,44</t>
+          <t>10,17; 14,52</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>4,63; 6,92</t>
+          <t>17,18; 26,51</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -1636,62 +1637,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>4,64%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4,37%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>4,56%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>7,01%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>9,25%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>5,79%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>5,7%</t>
-        </is>
-      </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>11,5%</t>
+          <t>7,44%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>19,35%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>12,41%</t>
+          <t>8,23%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>12,64%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>9,39%</t>
+          <t>6,09%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>14,72%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>9,08%</t>
+          <t>6,45%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>9,97%</t>
         </is>
       </c>
     </row>
@@ -1704,510 +1705,1922 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,66; 9,88</t>
+          <t>3,9; 5,43</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5,86; 14,28</t>
+          <t>2,94; 5,54</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,17; 7,74</t>
+          <t>3,82; 5,49</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,26; 7,65</t>
+          <t>5,75; 8,69</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>8,7; 14,87</t>
+          <t>6,64; 8,43</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>14,16; 27,16</t>
+          <t>5,71; 9,26</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>10,33; 14,64</t>
+          <t>7,2; 9,38</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>5,26; 8,55</t>
+          <t>10,88; 14,89</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>7,47; 11,5</t>
+          <t>5,52; 6,68</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>11,2; 19,41</t>
+          <t>4,87; 7,2</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>7,7; 10,43</t>
+          <t>5,78; 7,15</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>5,24; 7,52</t>
+          <t>8,63; 11,22</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>7,19%</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>9,88%</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>5,09%</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>4,23%</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>12,11%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>15,93%</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>10,94%</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>8,43%</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>9,43%</t>
-        </is>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>13,27%</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="inlineStr">
-        <is>
-          <t>8,51%</t>
-        </is>
-      </c>
-      <c r="N20" s="2" t="inlineStr">
-        <is>
-          <t>6,37%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>5,41; 9,85</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>5,28; 21,99</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>3,55; 7,12</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>2,89; 5,89</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>9,2; 14,89</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>10,88; 24,27</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>5,55; 14,53</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>6,66; 10,71</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>7,81; 11,42</t>
-        </is>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
-        <is>
-          <t>9,26; 18,75</t>
-        </is>
-      </c>
-      <c r="M21" s="2" t="inlineStr">
-        <is>
-          <t>5,66; 10,27</t>
-        </is>
-      </c>
-      <c r="N21" s="2" t="inlineStr">
-        <is>
-          <t>5,18; 7,63</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>8,51%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>12,19%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>8,41%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>8,76%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>14,33%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>27,14%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>17,29%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>14,84%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>11,59%</t>
-        </is>
-      </c>
-      <c r="L22" s="2" t="inlineStr">
-        <is>
-          <t>21,47%</t>
-        </is>
-      </c>
-      <c r="M22" s="2" t="inlineStr">
-        <is>
-          <t>13,81%</t>
-        </is>
-      </c>
-      <c r="N22" s="2" t="inlineStr">
-        <is>
-          <t>12,31%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>6,22; 11,6</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>7,28; 18,47</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>6,23; 11,37</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>6,76; 11,31</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>11,72; 17,73</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>20,83; 34,24</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>14,68; 20,3</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>12,6; 17,49</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>9,75; 13,87</t>
-        </is>
-      </c>
-      <c r="L23" s="2" t="inlineStr">
-        <is>
-          <t>17,28; 26,93</t>
-        </is>
-      </c>
-      <c r="M23" s="2" t="inlineStr">
-        <is>
-          <t>11,82; 15,89</t>
-        </is>
-      </c>
-      <c r="N23" s="2" t="inlineStr">
-        <is>
-          <t>10,87; 14,16</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>5,17%</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>6,98%</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>4,46%</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>4,06%</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>8,64%</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>12,61%</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>8,55%</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>6,42%</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>6,91%</t>
-        </is>
-      </c>
-      <c r="L24" s="2" t="inlineStr">
-        <is>
-          <t>9,94%</t>
-        </is>
-      </c>
-      <c r="M24" s="2" t="inlineStr">
-        <is>
-          <t>6,62%</t>
-        </is>
-      </c>
-      <c r="N24" s="2" t="inlineStr">
-        <is>
-          <t>5,27%</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>4,4; 5,99</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>5,67; 8,56</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>3,8; 5,19</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>3,51; 4,66</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>7,65; 9,74</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>10,77; 14,79</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>7,58; 9,49</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>5,74; 7,1</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>6,28; 7,59</t>
-        </is>
-      </c>
-      <c r="L25" s="2" t="inlineStr">
-        <is>
-          <t>8,76; 11,35</t>
-        </is>
-      </c>
-      <c r="M25" s="2" t="inlineStr">
-        <is>
-          <t>5,96; 7,23</t>
-        </is>
-      </c>
-      <c r="N25" s="2" t="inlineStr">
-        <is>
-          <t>4,82; 5,72</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A1:B2"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Consumo de ansiolíticos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16/24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>840</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>4036</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>2185</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1389</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2536</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1521</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>2839</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>2229</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>2536</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>5557</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>5024</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>291; 2170</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4766</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1485; 9030</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>833; 4220</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>530; 3114</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 14775</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5495</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>858; 6398</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1213; 4084</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 15081</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2223; 10817</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>2599; 8887</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25/34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1331</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1757</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>4191</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>4519</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>883</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>8254</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>7863</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>4208</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2214</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>10011</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>12054</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>8726</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>607; 2507</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 9220</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1533; 8406</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1951; 8504</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>381; 1961</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>2562; 17009</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>4103; 14261</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2009; 7483</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1319; 3736</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>3949; 19491</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>6918; 18733</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>4991; 14217</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35/44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>1247</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>10538</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>5258</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>8555</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3875</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>15917</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>17041</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>6430</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>5121</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>26455</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>22299</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>14984</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>518; 2411</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5372; 18701</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2218; 10116</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5143; 15585</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2494; 5873</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>10340; 23106</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>11146; 23806</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3480; 11512</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>3571; 7396</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>17930; 36591</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>16360; 30700</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>9903; 22283</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45/54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>7600</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>31236</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>12474</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>8139</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>8633</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>31964</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>19111</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>15039</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>16233</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>63200</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>31586</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>23178</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>5445; 10468</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>10363; 57569</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>8168; 18565</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>5036; 13021</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>6400; 11694</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>22674; 51249</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>12519; 27309</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>9618; 23334</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>12897; 19951</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>31025; 90635</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>23732; 43142</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>16397; 31340</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55/64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>7211</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>21704</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>16560</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>9068</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>10452</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>41462</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>28740</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>22421</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>17663</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>63166</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>45299</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>31489</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>4842; 10040</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>13528; 30177</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>11263; 25037</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>5671; 13723</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>7884; 13503</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>31929; 51359</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>21456; 37119</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>16308; 31228</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>14374; 22000</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>52240; 77697</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>35448; 56545</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>24030; 41200</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65/74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>4694</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>10747</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>11846</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>6826</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>9574</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>30861</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>23122</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>14073</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>14267</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>41608</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>34969</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>20899</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>3217; 7119</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>6263; 16469</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>8775; 16685</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>3552; 14805</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>7454; 12611</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>9571; 59189</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>17769; 29359</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>9605; 22068</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>11383; 17735</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>17380; 63734</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>28751; 42925</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>15236; 29224</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 y más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>9385</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>15856</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>12298</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>8402</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>21474</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>43052</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>31357</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>30585</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>30859</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>58907</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>43656</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>38987</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>6608; 12351</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>10248; 22043</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>8982; 16536</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>5101; 13008</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>18153; 25671</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>34472; 53383</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>24875; 38569</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>24161; 38931</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>26412; 35720</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>48555; 70252</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>36477; 52098</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>31191; 48132</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>511</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>390</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>409</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>32307</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>91838</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>66664</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>47694</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>56280</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>174046</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>128755</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>95594</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>88586</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>265883</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>195420</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>143288</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>27199; 37857</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>61856; 116383</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>55959; 80307</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>39101; 59127</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>50238; 63775</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>127313; 206501</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>112659; 146798</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>82235; 112561</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>80240; 97127</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>211043; 311735</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>174924; 216485</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>123972; 161127</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/CONS_ANS-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_ANS-Edad-trans_dic.xlsx
@@ -730,7 +730,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0; 4766</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">

--- a/data/trans_dic/CONS_ANS-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_ANS-Edad-trans_dic.xlsx
@@ -535,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de ansiolíticos</t>
+          <t>Consumo de ansiolíticos (tasa de respuesta: 99,66%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1826,7 +1826,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de ansiolíticos</t>
+          <t>Consumo de ansiolíticos (tasa de respuesta: 99,66%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/CONS_ANS-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_ANS-Edad-trans_dic.xlsx
@@ -657,7 +657,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,46; 3,45</t>
+          <t>0,79; 4,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -740,17 +740,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,29; 6,53</t>
+          <t>1,41; 6,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,85; 4,98</t>
+          <t>0,74; 3,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,01</t>
+          <t>0,0; 8,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -760,17 +760,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,39; 10,4</t>
+          <t>1,4; 11,37</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,97; 3,26</t>
+          <t>1,04; 3,48</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,59</t>
+          <t>0,0; 3,03</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -780,7 +780,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,06; 7,04</t>
+          <t>1,91; 7,11</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -837,7 +837,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -865,12 +865,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,88; 3,63</t>
+          <t>1,05; 4,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,02</t>
+          <t>0,0; 4,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -880,17 +880,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,58; 6,9</t>
+          <t>1,7; 7,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,61; 3,14</t>
+          <t>0,59; 2,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,81; 5,41</t>
+          <t>0,89; 5,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -900,17 +900,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,57; 5,84</t>
+          <t>1,63; 6,22</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 2,84</t>
+          <t>1,04; 2,86</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,73; 3,58</t>
+          <t>0,78; 3,62</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -920,7 +920,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,99; 5,66</t>
+          <t>2,13; 5,49</t>
         </is>
       </c>
     </row>
@@ -937,7 +937,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1005,12 +1005,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,55; 2,55</t>
+          <t>0,74; 3,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,73; 6,02</t>
+          <t>1,64; 5,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1020,17 +1020,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,71; 11,23</t>
+          <t>3,72; 10,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,56; 6,02</t>
+          <t>2,28; 5,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,21; 7,16</t>
+          <t>3,27; 7,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1040,17 +1040,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,67; 8,85</t>
+          <t>2,85; 8,84</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,86; 3,85</t>
+          <t>1,84; 3,79</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,83; 5,78</t>
+          <t>2,87; 5,91</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,68; 8,29</t>
+          <t>3,84; 8,42</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1145,12 +1145,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,91; 7,51</t>
+          <t>3,43; 6,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,65; 9,18</t>
+          <t>1,41; 9,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1160,17 +1160,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,28; 11,07</t>
+          <t>4,22; 10,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,64; 8,48</t>
+          <t>4,04; 7,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,6; 12,66</t>
+          <t>5,74; 12,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1180,17 +1180,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,05; 19,52</t>
+          <t>8,23; 19,98</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,65; 7,19</t>
+          <t>4,08; 6,38</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,01; 8,78</t>
+          <t>2,81; 8,83</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,91; 13,21</t>
+          <t>7,17; 14,17</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
@@ -1285,12 +1285,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,82; 7,91</t>
+          <t>3,48; 6,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,99; 8,9</t>
+          <t>4,11; 9,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1300,17 +1300,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,79; 14,0</t>
+          <t>5,58; 14,96</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,35; 9,16</t>
+          <t>5,31; 9,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,03; 16,14</t>
+          <t>10,44; 16,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1320,17 +1320,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>14,08; 26,95</t>
+          <t>13,71; 26,88</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,24; 8,02</t>
+          <t>4,91; 7,38</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7,95; 11,82</t>
+          <t>7,79; 11,61</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>11,24; 19,26</t>
+          <t>10,98; 19,51</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>8,33%</t>
+          <t>9,4%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -1425,12 +1425,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,99; 6,62</t>
+          <t>2,68; 5,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,01; 7,91</t>
+          <t>3,07; 8,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1440,17 +1440,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,14; 21,42</t>
+          <t>5,28; 20,14</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,49; 10,98</t>
+          <t>7,16; 12,05</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,11; 13,08</t>
+          <t>1,83; 13,56</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1460,17 +1460,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>10,87; 24,98</t>
+          <t>10,93; 23,43</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5,12; 7,97</t>
+          <t>5,53; 8,43</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2,63; 9,65</t>
+          <t>2,39; 9,89</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>9,68; 18,56</t>
+          <t>9,64; 19,24</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>9,74%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>16,03%</t>
+          <t>15,5%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>13,4%</t>
+          <t>12,71%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1565,12 +1565,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,86; 12,82</t>
+          <t>6,54; 11,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,77; 14,57</t>
+          <t>7,0; 15,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1580,17 +1580,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,4; 18,88</t>
+          <t>7,72; 19,1</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>13,55; 19,17</t>
+          <t>13,03; 18,49</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>14,78; 22,88</t>
+          <t>14,83; 22,44</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1600,17 +1600,17 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>21,44; 34,55</t>
+          <t>21,16; 34,53</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>11,47; 15,51</t>
+          <t>11,13; 14,73</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>12,63; 18,27</t>
+          <t>12,66; 18,41</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>17,18; 26,51</t>
+          <t>16,97; 27,0</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1677,7 +1677,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>6,09%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
@@ -1705,12 +1705,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,9; 5,43</t>
+          <t>3,6; 4,86</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,94; 5,54</t>
+          <t>3,0; 5,5</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1720,17 +1720,17 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5,75; 8,69</t>
+          <t>5,79; 8,86</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>6,64; 8,43</t>
+          <t>6,32; 7,91</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>5,71; 9,26</t>
+          <t>5,82; 9,21</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1740,17 +1740,17 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>10,88; 14,89</t>
+          <t>10,78; 14,71</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>5,52; 6,68</t>
+          <t>5,16; 6,22</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>4,87; 7,2</t>
+          <t>4,8; 7,08</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
@@ -1760,7 +1760,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>8,63; 11,22</t>
+          <t>8,81; 11,24</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>840</t>
+          <t>1629</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1389</t>
+          <t>1224</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2229</t>
+          <t>2852</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -2084,7 +2084,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>291; 2170</t>
+          <t>611; 3544</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -2099,17 +2099,17 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>833; 4220</t>
+          <t>910; 4392</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>530; 3114</t>
+          <t>489; 2529</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0; 14775</t>
+          <t>0; 16067</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -2119,17 +2119,17 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>858; 6398</t>
+          <t>859; 6994</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1213; 4084</t>
+          <t>1484; 4975</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0; 15081</t>
+          <t>0; 12757</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
@@ -2139,7 +2139,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2599; 8887</t>
+          <t>2408; 8978</t>
         </is>
       </c>
     </row>
@@ -2224,7 +2224,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1331</t>
+          <t>1599</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -2244,7 +2244,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>883</t>
+          <t>949</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -2264,7 +2264,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2214</t>
+          <t>2548</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -2292,12 +2292,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>607; 2507</t>
+          <t>787; 3039</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 9220</t>
+          <t>0; 9958</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -2307,17 +2307,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1951; 8504</t>
+          <t>2097; 9317</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>381; 1961</t>
+          <t>400; 1986</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2562; 17009</t>
+          <t>2785; 16828</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -2327,17 +2327,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2009; 7483</t>
+          <t>2089; 7967</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1319; 3736</t>
+          <t>1485; 4085</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3949; 19491</t>
+          <t>4257; 19697</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -2347,7 +2347,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4991; 14217</t>
+          <t>5341; 13794</t>
         </is>
       </c>
     </row>
@@ -2432,7 +2432,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1247</t>
+          <t>1765</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -2452,7 +2452,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3875</t>
+          <t>4040</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -2472,7 +2472,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5121</t>
+          <t>5805</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -2500,12 +2500,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>518; 2411</t>
+          <t>772; 3463</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5372; 18701</t>
+          <t>5092; 18200</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -2515,17 +2515,17 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5143; 15585</t>
+          <t>5166; 14624</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2494; 5873</t>
+          <t>2519; 6191</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>10340; 23106</t>
+          <t>10556; 22656</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -2535,17 +2535,17 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>3480; 11512</t>
+          <t>3708; 11510</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3571; 7396</t>
+          <t>3956; 8136</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>17930; 36591</t>
+          <t>18205; 37403</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
@@ -2555,7 +2555,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>9903; 22283</t>
+          <t>10337; 22636</t>
         </is>
       </c>
     </row>
@@ -2640,7 +2640,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7600</t>
+          <t>6957</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -2660,7 +2660,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>8633</t>
+          <t>8206</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>16233</t>
+          <t>15163</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -2708,12 +2708,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5445; 10468</t>
+          <t>4963; 9377</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10363; 57569</t>
+          <t>8833; 56993</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -2723,17 +2723,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5036; 13021</t>
+          <t>4967; 12743</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6400; 11694</t>
+          <t>6169; 11302</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>22674; 51249</t>
+          <t>23247; 51647</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -2743,17 +2743,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>9618; 23334</t>
+          <t>9841; 23886</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>12897; 19951</t>
+          <t>12142; 18959</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>31025; 90635</t>
+          <t>29042; 91166</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -2763,7 +2763,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>16397; 31340</t>
+          <t>17007; 33617</t>
         </is>
       </c>
     </row>
@@ -2848,7 +2848,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7211</t>
+          <t>6499</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -2868,7 +2868,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>10452</t>
+          <t>10506</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -2888,7 +2888,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>17663</t>
+          <t>17005</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
@@ -2916,12 +2916,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>4842; 10040</t>
+          <t>4511; 8893</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>13528; 30177</t>
+          <t>13924; 31215</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -2931,17 +2931,17 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>5671; 13723</t>
+          <t>5470; 14663</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>7884; 13503</t>
+          <t>8059; 13764</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>31929; 51359</t>
+          <t>33235; 51792</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -2951,17 +2951,17 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>16308; 31228</t>
+          <t>15888; 31145</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>14374; 22000</t>
+          <t>13812; 20787</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>52240; 77697</t>
+          <t>51203; 76357</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>24030; 41200</t>
+          <t>23478; 41719</t>
         </is>
       </c>
     </row>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>4694</t>
+          <t>4176</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -3076,7 +3076,7 @@
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>9574</t>
+          <t>10888</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -3096,7 +3096,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>14267</t>
+          <t>15065</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
@@ -3124,12 +3124,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>3217; 7119</t>
+          <t>2804; 6250</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>6263; 16469</t>
+          <t>6396; 16779</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -3139,17 +3139,17 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3552; 14805</t>
+          <t>3650; 13916</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>7454; 12611</t>
+          <t>8295; 13955</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>9571; 59189</t>
+          <t>8269; 61380</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -3159,17 +3159,17 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>9605; 22068</t>
+          <t>9655; 20703</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>11383; 17735</t>
+          <t>12175; 18562</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>17380; 63734</t>
+          <t>15777; 65361</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
@@ -3179,7 +3179,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>15236; 29224</t>
+          <t>15186; 30299</t>
         </is>
       </c>
     </row>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>9385</t>
+          <t>7635</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -3284,7 +3284,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>21474</t>
+          <t>20513</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>30859</t>
+          <t>28148</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
@@ -3332,12 +3332,12 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>6608; 12351</t>
+          <t>5831; 9858</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>10248; 22043</t>
+          <t>10584; 22766</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -3347,17 +3347,17 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>5101; 13008</t>
+          <t>5319; 13159</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>18153; 25671</t>
+          <t>17237; 24460</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>34472; 53383</t>
+          <t>34590; 52352</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -3367,17 +3367,17 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>24161; 38931</t>
+          <t>23845; 38905</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>26412; 35720</t>
+          <t>24662; 32637</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>48555; 70252</t>
+          <t>48688; 70804</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>31191; 48132</t>
+          <t>30812; 49021</t>
         </is>
       </c>
     </row>
@@ -3472,7 +3472,7 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>32307</t>
+          <t>30260</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
@@ -3492,7 +3492,7 @@
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>56280</t>
+          <t>56326</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
@@ -3512,7 +3512,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>88586</t>
+          <t>86586</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
@@ -3540,12 +3540,12 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>27199; 37857</t>
+          <t>26042; 35193</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>61856; 116383</t>
+          <t>63018; 115550</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -3555,17 +3555,17 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>39101; 59127</t>
+          <t>39382; 60268</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>50238; 63775</t>
+          <t>50426; 63068</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>127313; 206501</t>
+          <t>129880; 205311</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -3575,17 +3575,17 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>82235; 112561</t>
+          <t>81528; 111235</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>80240; 97127</t>
+          <t>78541; 94593</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>211043; 311735</t>
+          <t>207822; 306834</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
@@ -3595,7 +3595,7 @@
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>123972; 161127</t>
+          <t>126562; 161412</t>
         </is>
       </c>
     </row>
